--- a/train_networks/comparison.xlsx
+++ b/train_networks/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester2\Images\Project\egh444-group-project\train_networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE805C89-9EB8-4C8E-9948-209E92CB3225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0FC49-FA16-43B3-A5A8-95561F91F4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="6600" windowWidth="13030" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="9200" windowWidth="13580" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,14 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,6 +226,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,14 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +527,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,32 +537,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -573,35 +570,39 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>0.9284</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="8">
         <v>0.92220000000000002</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.9667</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>0.91539999999999999</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="8">
         <v>0.93330000000000002</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="15">
         <v>0.92969999999999997</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="8">
         <v>0.93330000000000002</v>
       </c>
     </row>
@@ -609,33 +610,41 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>0.92220000000000002</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="8">
         <v>0.9556</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="15">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.9556</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="9">
         <v>0.92969999999999997</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <v>0.94440000000000002</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="16">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.9667</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/train_networks/comparison.xlsx
+++ b/train_networks/comparison.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester2\Images\Project\egh444-group-project\train_networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0FC49-FA16-43B3-A5A8-95561F91F4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F86C-D1D7-40BC-9EE0-3E39A2E43D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="9200" windowWidth="13580" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4850" yWindow="2900" windowWidth="12740" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ResNet-18</t>
   </si>
@@ -33,9 +42,6 @@
     <t>AlexNet</t>
   </si>
   <si>
-    <t>MobileNet</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
@@ -54,16 +60,52 @@
     <t>Size</t>
   </si>
   <si>
-    <t>640MB</t>
-  </si>
-  <si>
-    <t>250MB</t>
-  </si>
-  <si>
-    <t>120MB</t>
-  </si>
-  <si>
-    <t>30MB</t>
+    <t>VGG-16</t>
+  </si>
+  <si>
+    <t>MobileNetV2</t>
+  </si>
+  <si>
+    <t>61M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>138M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>3.4M</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Measure size as net only not entire workspace</t>
+  </si>
+  <si>
+    <t>6 Epochs</t>
+  </si>
+  <si>
+    <t>1 Epoch</t>
+  </si>
+  <si>
+    <t>8MB</t>
+  </si>
+  <si>
+    <t>200MB</t>
+  </si>
+  <si>
+    <t>80MB</t>
+  </si>
+  <si>
+    <t>40MB</t>
+  </si>
+  <si>
+    <t>500MB</t>
   </si>
 </sst>
 </file>
@@ -87,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,12 +150,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,8 +244,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -199,49 +257,68 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,132 +601,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="6" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="24"/>
+      <c r="B1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.9284</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.9667</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.9778</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.9556</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.9556</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.9778</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.9667</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.9778</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.9284</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.9667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.93330000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.9556</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.9556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.9667</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/train_networks/comparison.xlsx
+++ b/train_networks/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester2\Images\Project\egh444-group-project\train_networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F86C-D1D7-40BC-9EE0-3E39A2E43D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB8A6F-6DD5-427E-9134-E933E658637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4850" yWindow="2900" windowWidth="12740" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="4400" windowWidth="14770" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ResNet-18</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>Test Set</t>
-  </si>
-  <si>
     <t>3 Epochs</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Params</t>
   </si>
   <si>
-    <t>Measure size as net only not entire workspace</t>
-  </si>
-  <si>
     <t>6 Epochs</t>
   </si>
   <si>
@@ -106,13 +100,29 @@
   </si>
   <si>
     <t>500MB</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>90 images</t>
+  </si>
+  <si>
+    <t>133 images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +138,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -280,11 +303,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,7 +350,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,8 +362,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,73 +674,80 @@
     <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="10.08984375" customWidth="1"/>
     <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="23"/>
+      <c r="B1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
+      <c r="E2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
+      <c r="G2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
+      <c r="I2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="K2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11">
         <v>0.87239999999999995</v>
@@ -700,23 +767,27 @@
       <c r="I3" s="12">
         <v>0.9667</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="35">
         <v>0.95020000000000004</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="34">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>11</v>
+      <c r="B4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="11">
         <v>0.89839999999999998</v>
@@ -739,19 +810,23 @@
       <c r="J4" s="11">
         <v>0.96250000000000002</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="18">
         <v>0.9778</v>
       </c>
+      <c r="L4" s="36">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11">
         <v>0.89500000000000002</v>
@@ -771,22 +846,26 @@
       <c r="I5" s="12">
         <v>0.9556</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="37">
         <v>0.96789999999999998</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="18">
         <v>0.9778</v>
       </c>
+      <c r="L5" s="36">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="11">
         <v>0.91879999999999995</v>
@@ -809,36 +888,72 @@
       <c r="J6" s="11">
         <v>0.95909999999999995</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
+      <c r="L6" s="36">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10">
+      <c r="H7" s="38">
         <v>0.97340000000000004</v>
       </c>
       <c r="I7" s="13">
         <v>0.9778</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>16</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="33">
+        <v>30</v>
+      </c>
+      <c r="G9" s="33">
+        <v>30</v>
+      </c>
+      <c r="H9" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <f>133-45-45</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +961,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/train_networks/comparison.xlsx
+++ b/train_networks/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester2\Images\Project\egh444-group-project\train_networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB8A6F-6DD5-427E-9134-E933E658637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB95BE3-C5A6-4A3B-BF8D-5F90428BD06B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="4400" windowWidth="14770" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="5400" windowWidth="14770" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,12 +356,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,16 +364,23 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -664,7 +665,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,28 +680,28 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="23"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="28"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24"/>
@@ -713,31 +714,31 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -767,13 +768,13 @@
       <c r="I3" s="12">
         <v>0.9667</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="31">
         <v>0.95020000000000004</v>
       </c>
       <c r="K3" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="30">
         <v>0.84209999999999996</v>
       </c>
       <c r="M3" s="18"/>
@@ -813,7 +814,7 @@
       <c r="K4" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="37">
         <v>0.92479999999999996</v>
       </c>
       <c r="M4" s="18"/>
@@ -846,13 +847,13 @@
       <c r="I5" s="12">
         <v>0.9556</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="32">
         <v>0.96789999999999998</v>
       </c>
       <c r="K5" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="37">
         <v>0.93230000000000002</v>
       </c>
       <c r="M5" s="18"/>
@@ -888,10 +889,10 @@
       <c r="J6" s="11">
         <v>0.95909999999999995</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>1</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="37">
         <v>0.92479999999999996</v>
       </c>
       <c r="M6" s="18"/>
@@ -910,16 +911,22 @@
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <v>0.97340000000000004</v>
       </c>
       <c r="I7" s="13">
         <v>0.9778</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="30"/>
+      <c r="J7" s="10">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0.9556</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="M7" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9" s="17" t="s">
@@ -928,13 +935,13 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>30</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>30</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>30</v>
       </c>
     </row>

--- a/train_networks/comparison.xlsx
+++ b/train_networks/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester2\Images\Project\egh444-group-project\train_networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB95BE3-C5A6-4A3B-BF8D-5F90428BD06B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82280B5E-1568-46B9-87B2-EBFE57132351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="5400" windowWidth="14770" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20200" yWindow="3030" windowWidth="14770" windowHeight="12530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ResNet-18</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>4 Epochs</t>
-  </si>
-  <si>
-    <t>InceptionV2</t>
   </si>
   <si>
     <t>Size</t>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>133 images</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>Test set 1</t>
+  </si>
+  <si>
+    <t>Models</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -321,12 +327,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +427,10 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,14 +440,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,6 +470,2313 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResNet-18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96250000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9D3-48AA-8115-BA9EBA3A74EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96789999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9D3-48AA-8115-BA9EBA3A74EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95909999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9D3-48AA-8115-BA9EBA3A74EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="487355064"/>
+        <c:axId val="487355392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="487355064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487355392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487355392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.88000000000000012"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487355064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResNet-18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CAC-4CA1-A1D0-0EB3189FC17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CAC-4CA1-A1D0-0EB3189FC17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MobileNetV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CAC-4CA1-A1D0-0EB3189FC17C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="481653936"/>
+        <c:axId val="481654592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="481653936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481654592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481654592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.88000000000000012"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481653936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129761</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7FE298-3F29-47A3-A7AC-3CF408FFB023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13804</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46934</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A332ABD-0A95-48AB-822E-FDEAB1877990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,10 +3042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,79 +3056,93 @@
     <col min="4" max="9" width="10.08984375" customWidth="1"/>
     <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23"/>
-      <c r="B1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="O2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="26"/>
+      <c r="R2" s="42" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11">
         <v>0.87239999999999995</v>
@@ -779,16 +3173,28 @@
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="31">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0.9778</v>
+      </c>
+      <c r="R3" s="30">
+        <v>0.84209999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11">
         <v>0.89839999999999998</v>
@@ -814,20 +3220,32 @@
       <c r="K4" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="34">
         <v>0.92479999999999996</v>
       </c>
       <c r="M4" s="18"/>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0.9778</v>
+      </c>
+      <c r="R4" s="34">
+        <v>0.92479999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11">
         <v>0.89500000000000002</v>
@@ -853,20 +3271,32 @@
       <c r="K5" s="18">
         <v>0.9778</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="34">
         <v>0.93230000000000002</v>
       </c>
       <c r="M5" s="18"/>
+      <c r="O5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.9778</v>
+      </c>
+      <c r="R5" s="34">
+        <v>0.93230000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11">
         <v>0.91879999999999995</v>
@@ -892,26 +3322,38 @@
       <c r="K6" s="27">
         <v>1</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <v>0.92479999999999996</v>
       </c>
       <c r="M6" s="18"/>
+      <c r="O6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>1</v>
+      </c>
+      <c r="R6" s="35">
+        <v>0.92479999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="36">
+      <c r="H7" s="33">
         <v>0.97340000000000004</v>
       </c>
       <c r="I7" s="13">
@@ -920,47 +3362,171 @@
       <c r="J7" s="10">
         <v>0.96930000000000005</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="36">
         <v>0.9556</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="35">
         <v>0.93230000000000002</v>
       </c>
       <c r="M7" s="28"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D9" s="17" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="J9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="29">
-        <v>30</v>
-      </c>
-      <c r="G9" s="29">
-        <v>30</v>
-      </c>
-      <c r="H9" s="29">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>6</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>3</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="46">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="K14" s="46">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="L14" s="46">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <f>133-45-45</f>
-        <v>43</v>
+      <c r="B15" s="46">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0.9556</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.9556</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="46">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0.9667</v>
+      </c>
+      <c r="L16" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <f>124/133</f>
+        <v>0.93233082706766912</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <f>88/90</f>
+        <v>0.97777777777777775</v>
       </c>
     </row>
   </sheetData>
@@ -973,5 +3539,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>